--- a/SciCalcDemo/assets/XLMathOriginal.xlsx
+++ b/SciCalcDemo/assets/XLMathOriginal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\source\repos\SciCalc\SciCalcDemo\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7BB1B-636E-4B94-A91C-CE007E2CA50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B08CA-1D8A-4992-A610-A6F85DE5AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{163E41E0-9AD6-4D75-8144-1BB501121731}"/>
   </bookViews>
@@ -474,16 +474,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9E972E-3B3D-4BA3-93D4-345B3EF802EB}">
-  <dimension ref="A1:XFB9"/>
+  <dimension ref="A1:XFB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
     <col min="3" max="4" width="22.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
@@ -529,8 +529,8 @@
         <v>17.773400000000002</v>
       </c>
       <c r="D2" s="1">
-        <f>A2-B2</f>
-        <v>6.4334000000000007</v>
+        <f>D3</f>
+        <v>0.1134</v>
       </c>
       <c r="E2" s="1">
         <f>PRODUCT(A2:B2)</f>
@@ -541,16 +541,16 @@
         <v>2.1346384479717813</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="1">SUM(A2:D2)</f>
-        <v>41.980200000000004</v>
+        <f>A2+B2+C2+D2+E2</f>
+        <v>104.286478</v>
       </c>
       <c r="H2" s="1" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.IFS(G2&gt;10,"A",G2&gt;0.9,"B",G2&lt;1,"F")</f>
+        <f t="array" ref="H2">_xlfn.IFS(G2&gt;90,"A",G2&gt;80,"B",G2&gt;70,"C",G2&gt;60,"D",G2&gt;50,"E",G2&lt;50,"F")</f>
         <v>A</v>
       </c>
       <c r="XFB2">
-        <f t="shared" ref="XFB2:XFB7" si="2">SUM(G2)</f>
-        <v>41.980200000000004</v>
+        <f t="shared" ref="XFB2:XFB7" si="1">SUM(G2)</f>
+        <v>104.286478</v>
       </c>
     </row>
     <row r="3" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -561,15 +561,15 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C9" si="3">SUM(A3:B3)</f>
+        <f t="shared" ref="C3:C11" si="2">SUM(A3:B3)</f>
         <v>0.13339999999999999</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="4">A3-B3</f>
+        <f t="shared" ref="D3:D11" si="3">A3-B3</f>
         <v>0.1134</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E8" si="5">PRODUCT(A3:B3)</f>
+        <f t="shared" ref="E3:E8" si="4">PRODUCT(A3:B3)</f>
         <v>1.2340000000000001E-3</v>
       </c>
       <c r="F3" s="1">
@@ -577,16 +577,16 @@
         <v>12.34</v>
       </c>
       <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="5">A3+B3+C3+D3+E3</f>
+        <v>0.381434</v>
+      </c>
+      <c r="H3" s="1" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(G3&gt;90,"A",G3&gt;80,"B",G3&gt;70,"C",G3&gt;60,"D",G3&gt;50,"E",G3&lt;50,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="XFB3">
         <f t="shared" si="1"/>
-        <v>0.38019999999999998</v>
-      </c>
-      <c r="H3" s="1" t="str" cm="1">
-        <f t="array" ref="H3">_xlfn.IFS(G3&gt;10,"A",G3&gt;0.9,"B",G3&lt;1,"F")</f>
-        <v>F</v>
-      </c>
-      <c r="XFB3">
-        <f t="shared" si="2"/>
-        <v>0.38019999999999998</v>
+        <v>0.381434</v>
       </c>
     </row>
     <row r="4" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -597,15 +597,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2234</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>1.2234</v>
-      </c>
-      <c r="D4" s="1">
+        <v>-0.97660000000000013</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="4"/>
-        <v>-0.97660000000000013</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="5"/>
         <v>0.13574</v>
       </c>
       <c r="F4" s="1">
@@ -613,16 +613,16 @@
         <v>0.11218181818181817</v>
       </c>
       <c r="G4" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6059399999999999</v>
+      </c>
+      <c r="H4" s="1" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(G4&gt;90,"A",G4&gt;80,"B",G4&gt;70,"C",G4&gt;60,"D",G4&gt;50,"E",G4&lt;50,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="XFB4">
         <f t="shared" si="1"/>
-        <v>1.4702</v>
-      </c>
-      <c r="H4" s="1" t="str" cm="1">
-        <f t="array" ref="H4">_xlfn.IFS(G4&gt;10,"A",G4&gt;0.9,"B",G4&lt;1,"F")</f>
-        <v>B</v>
-      </c>
-      <c r="XFB4">
-        <f t="shared" si="2"/>
-        <v>1.4702</v>
+        <v>1.6059399999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -633,15 +633,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2234</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>1.2234</v>
-      </c>
-      <c r="D5" s="1">
+        <v>-0.97660000000000013</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="4"/>
-        <v>-0.97660000000000013</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="5"/>
         <v>0.13574</v>
       </c>
       <c r="F5" s="1">
@@ -649,16 +649,16 @@
         <v>0.11218181818181817</v>
       </c>
       <c r="G5" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6059399999999999</v>
+      </c>
+      <c r="H5" s="1" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(G5&gt;90,"A",G5&gt;80,"B",G5&gt;70,"C",G5&gt;60,"D",G5&gt;50,"E",G5&lt;50,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="XFB5">
         <f t="shared" si="1"/>
-        <v>1.4702</v>
-      </c>
-      <c r="H5" s="1" t="str" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(G5&gt;10,"A",G5&gt;0.9,"B",G5&lt;1,"F")</f>
-        <v>B</v>
-      </c>
-      <c r="XFB5">
-        <f t="shared" si="2"/>
-        <v>1.4702</v>
+        <v>1.6059399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -669,15 +669,15 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11234000000000001</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>0.11234000000000001</v>
-      </c>
-      <c r="D6" s="1">
+        <v>-8.7660000000000002E-2</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="4"/>
-        <v>-8.7660000000000002E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="5"/>
         <v>1.2340000000000001E-3</v>
       </c>
       <c r="F6" s="1">
@@ -685,16 +685,16 @@
         <v>0.1234</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13825400000000004</v>
+      </c>
+      <c r="H6" s="1" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(G6&gt;90,"A",G6&gt;80,"B",G6&gt;70,"C",G6&gt;60,"D",G6&gt;50,"E",G6&lt;50,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="XFB6">
         <f t="shared" si="1"/>
-        <v>0.13702000000000003</v>
-      </c>
-      <c r="H6" s="1" t="str" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(G6&gt;10,"A",G6&gt;0.9,"B",G6&lt;1,"F")</f>
-        <v>F</v>
-      </c>
-      <c r="XFB6">
-        <f t="shared" si="2"/>
-        <v>0.13702000000000003</v>
+        <v>0.13825400000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -705,15 +705,15 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1123400000000001</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1.1123400000000001</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.91234000000000004</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="4"/>
-        <v>0.91234000000000004</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="5"/>
         <v>0.101234</v>
       </c>
       <c r="F7" s="1">
@@ -721,16 +721,16 @@
         <v>10.1234</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>3.238254</v>
+      </c>
+      <c r="H7" s="1" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(G7&gt;90,"A",G7&gt;80,"B",G7&gt;70,"C",G7&gt;60,"D",G7&gt;50,"E",G7&lt;50,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="XFB7">
         <f t="shared" si="1"/>
-        <v>3.1370200000000001</v>
-      </c>
-      <c r="H7" s="1" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7&gt;10,"A",G7&gt;0.9,"B",G7&lt;1,"F")</f>
-        <v>B</v>
-      </c>
-      <c r="XFB7">
-        <f t="shared" si="2"/>
-        <v>3.1370200000000001</v>
+        <v>3.238254</v>
       </c>
     </row>
     <row r="8" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -741,15 +741,15 @@
         <v>5.67</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>17.773423445500001</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>17.773423445500001</v>
-      </c>
-      <c r="D8" s="1">
+        <v>6.4334234455000008</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="4"/>
-        <v>6.4334234455000008</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="5"/>
         <v>68.626410935985007</v>
       </c>
       <c r="F8" s="1">
@@ -757,11 +757,11 @@
         <v>2.1346425829805997</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>41.980270336499999</v>
+        <f t="shared" si="5"/>
+        <v>110.60668127248501</v>
       </c>
       <c r="H8" s="1" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(G8&gt;10,"A",G8&gt;0.9,"B",G8&lt;1,"F")</f>
+        <f t="array" ref="H8">_xlfn.IFS(G8&gt;90,"A",G8&gt;80,"B",G8&gt;70,"C",G8&gt;60,"D",G8&gt;50,"E",G8&lt;50,"F")</f>
         <v>A</v>
       </c>
     </row>
@@ -773,27 +773,91 @@
         <v>5.67</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>126.7734234455</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>126.7734234455</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="4"/>
         <v>115.4334234455</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9" si="6">PRODUCT(A9:B9)</f>
+        <f>PRODUCT(A9:B9)</f>
         <v>686.65641093598504</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f>(A9/B9)</f>
         <v>21.358628473633157</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>368.98027033649998</v>
+        <f t="shared" si="5"/>
+        <v>1055.636681272485</v>
       </c>
       <c r="H9" s="1" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9&gt;10,"A",G9&gt;0.9,"B",G9&lt;1,"F")</f>
+        <f t="array" ref="H9">_xlfn.IFS(G9&gt;90,"A",G9&gt;80,"B",G9&gt;70,"C",G9&gt;60,"D",G9&gt;50,"E",G9&lt;50,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>405.123456789123</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102.123456789123</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>507.24691357824599</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="E10" s="1">
+        <f>PRODUCT(A10:B10)</f>
+        <v>41372.607833664137</v>
+      </c>
+      <c r="F10" s="1">
+        <f>(A10/B10)</f>
+        <v>3.9669970986751011</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="5"/>
+        <v>42690.101660820626</v>
+      </c>
+      <c r="H10" s="1" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(G10&gt;90,"A",G10&gt;80,"B",G10&gt;70,"C",G10&gt;60,"D",G10&gt;50,"E",G10&lt;50,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>123456789.012345</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.99234500000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(A11:B11)</f>
+        <v>123456790.00469001</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>123456788.02</v>
+      </c>
+      <c r="E11" s="1">
+        <f>PRODUCT(A11:B11)</f>
+        <v>122511727.29245551</v>
+      </c>
+      <c r="F11" s="1">
+        <f>(A11/B11)</f>
+        <v>124409140.9865974</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="5"/>
+        <v>492882095.32183552</v>
+      </c>
+      <c r="H11" s="1" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(G11&gt;90,"A",G11&gt;80,"B",G11&gt;70,"C",G11&gt;60,"D",G11&gt;50,"E",G11&lt;50,"F")</f>
         <v>A</v>
       </c>
     </row>

--- a/SciCalcDemo/assets/XLMathOriginal.xlsx
+++ b/SciCalcDemo/assets/XLMathOriginal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\source\repos\SciCalc\SciCalcDemo\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B08CA-1D8A-4992-A610-A6F85DE5AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB35071-D502-481F-86DE-6ACFB30E5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{163E41E0-9AD6-4D75-8144-1BB501121731}"/>
   </bookViews>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9E972E-3B3D-4BA3-93D4-345B3EF802EB}">
-  <dimension ref="A1:XFB11"/>
+  <dimension ref="A1:XFB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,20 +529,20 @@
         <v>17.773400000000002</v>
       </c>
       <c r="D2" s="1">
-        <f>D3</f>
-        <v>0.1134</v>
+        <f>A2-B2</f>
+        <v>6.4334000000000007</v>
       </c>
       <c r="E2" s="1">
         <f>PRODUCT(A2:B2)</f>
         <v>68.626277999999999</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F9" si="0">(A2/B2)</f>
+        <f t="shared" ref="F2:F8" si="0">(A2/B2)</f>
         <v>2.1346384479717813</v>
       </c>
       <c r="G2" s="1">
         <f>A2+B2+C2+D2+E2</f>
-        <v>104.286478</v>
+        <v>110.60647800000001</v>
       </c>
       <c r="H2" s="1" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(G2&gt;90,"A",G2&gt;80,"B",G2&gt;70,"C",G2&gt;60,"D",G2&gt;50,"E",G2&lt;50,"F")</f>
@@ -550,7 +550,7 @@
       </c>
       <c r="XFB2">
         <f t="shared" ref="XFB2:XFB7" si="1">SUM(G2)</f>
-        <v>104.286478</v>
+        <v>110.60647800000001</v>
       </c>
     </row>
     <row r="3" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
@@ -561,11 +561,11 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="2">SUM(A3:B3)</f>
+        <f t="shared" ref="C3:C10" si="2">SUM(A3:B3)</f>
         <v>0.13339999999999999</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D11" si="3">A3-B3</f>
+        <f t="shared" ref="D3:D12" si="3">A3-B3</f>
         <v>0.1134</v>
       </c>
       <c r="E3" s="1">
@@ -577,7 +577,7 @@
         <v>12.34</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="5">A3+B3+C3+D3+E3</f>
+        <f t="shared" ref="G3:G12" si="5">A3+B3+C3+D3+E3</f>
         <v>0.381434</v>
       </c>
       <c r="H3" s="1" t="str" cm="1">
@@ -858,6 +858,38 @@
       </c>
       <c r="H11" s="1" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(G11&gt;90,"A",G11&gt;80,"B",G11&gt;70,"C",G11&gt;60,"D",G11&gt;50,"E",G11&lt;50,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>989898</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9898</v>
+      </c>
+      <c r="C12" s="1">
+        <f>SUM(A12:B12)</f>
+        <v>999796</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>980000</v>
+      </c>
+      <c r="E12" s="1">
+        <f>PRODUCT(A12:B12)</f>
+        <v>9798010404</v>
+      </c>
+      <c r="F12" s="1">
+        <f>(A12/B12)</f>
+        <v>100.00990099009901</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="5"/>
+        <v>9800989996</v>
+      </c>
+      <c r="H12" s="1" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(G12&gt;90,"A",G12&gt;80,"B",G12&gt;70,"C",G12&gt;60,"D",G12&gt;50,"E",G12&lt;50,"F")</f>
         <v>A</v>
       </c>
     </row>
